--- a/data/WTD_LTM_GageProposalFINAL.xlsx
+++ b/data/WTD_LTM_GageProposalFINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kc1-my.sharepoint.com/personal/ihiggins_kingcounty_gov/Documents/Python/ISP-Program-Map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="8_{AAEF7D5C-03DC-498D-9BCC-893FCB383C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9688507-3672-44F1-BACD-DB1F331F1FF8}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{AAEF7D5C-03DC-498D-9BCC-893FCB383C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C784A0D9-F6D9-41C5-AB7B-9101428DB260}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="170">
   <si>
     <t>SITE_CODE</t>
   </si>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3413,6 +3413,9 @@
       <c r="I72" s="9" t="s">
         <v>125</v>
       </c>
+      <c r="N72" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="1:27" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="8"/>
